--- a/sources/fact_extraction_viewpoint/economy-table24.xlsx
+++ b/sources/fact_extraction_viewpoint/economy-table24.xlsx
@@ -42674,12 +42674,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="168" formatCode="\*\ \ \ #,##0;\*\ \ \ \-#,##0"/>
-    <numFmt numFmtId="169" formatCode="\*\ \ \ #,##0.00;\*\ \ \ \-#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0"/>
-    <numFmt numFmtId="171" formatCode="\*\ \ \ #,##0.000;\*\ \ \ \-#,##0.000"/>
-    <numFmt numFmtId="172" formatCode="\*\ \ \ #,##0.0;\*\ \ \ \-#,##0.0"/>
-    <numFmt numFmtId="173" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="\*\ \ \ #,##0;\*\ \ \ \-#,##0"/>
+    <numFmt numFmtId="165" formatCode="\*\ \ \ #,##0.00;\*\ \ \ \-#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="\*\ \ \ #,##0.000;\*\ \ \ \-#,##0.000"/>
+    <numFmt numFmtId="168" formatCode="\*\ \ \ #,##0.0;\*\ \ \ \-#,##0.0"/>
+    <numFmt numFmtId="169" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -42814,22 +42814,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -42838,21 +42838,14 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
@@ -42866,6 +42859,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -43140,8 +43140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BC106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="BC106" sqref="BC106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -43152,661 +43152,661 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:54">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:54">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:54">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:54" ht="30" customHeight="1">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="S5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="16" t="s">
+      <c r="U5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="V5" s="16" t="s">
+      <c r="V5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="16" t="s">
+      <c r="W5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="X5" s="16" t="s">
+      <c r="X5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Y5" s="16" t="s">
+      <c r="Y5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Z5" s="16" t="s">
+      <c r="Z5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AA5" s="16" t="s">
+      <c r="AA5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AB5" s="16" t="s">
+      <c r="AB5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AC5" s="16" t="s">
+      <c r="AC5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AD5" s="16" t="s">
+      <c r="AD5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AE5" s="16" t="s">
+      <c r="AE5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AF5" s="16" t="s">
+      <c r="AF5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AG5" s="16" t="s">
+      <c r="AG5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AH5" s="16" t="s">
+      <c r="AH5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AI5" s="16" t="s">
+      <c r="AI5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AJ5" s="16" t="s">
+      <c r="AJ5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AK5" s="16" t="s">
+      <c r="AK5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AL5" s="16" t="s">
+      <c r="AL5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AM5" s="16" t="s">
+      <c r="AM5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AN5" s="16" t="s">
+      <c r="AN5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AO5" s="16" t="s">
+      <c r="AO5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AP5" s="16" t="s">
+      <c r="AP5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AQ5" s="16" t="s">
+      <c r="AQ5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AR5" s="16" t="s">
+      <c r="AR5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AS5" s="16" t="s">
+      <c r="AS5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AT5" s="16" t="s">
+      <c r="AT5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AU5" s="16" t="s">
+      <c r="AU5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AV5" s="16" t="s">
+      <c r="AV5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AW5" s="16" t="s">
+      <c r="AW5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AX5" s="16" t="s">
+      <c r="AX5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AY5" s="16" t="s">
+      <c r="AY5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AZ5" s="16" t="s">
+      <c r="AZ5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="BA5" s="16" t="s">
+      <c r="BA5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="BB5" s="16" t="s">
+      <c r="BB5" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:54" ht="30" customHeight="1">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="17" t="s">
+      <c r="R6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="17" t="s">
+      <c r="S6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="17" t="s">
+      <c r="U6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="17" t="s">
+      <c r="V6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="17" t="s">
+      <c r="W6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="X6" s="17" t="s">
+      <c r="X6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="17" t="s">
+      <c r="Y6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="Z6" s="17" t="s">
+      <c r="Z6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="17" t="s">
+      <c r="AA6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AB6" s="17" t="s">
+      <c r="AB6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AC6" s="17" t="s">
+      <c r="AC6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AD6" s="17" t="s">
+      <c r="AD6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AE6" s="17" t="s">
+      <c r="AE6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AF6" s="17" t="s">
+      <c r="AF6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AG6" s="17" t="s">
+      <c r="AG6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AH6" s="17" t="s">
+      <c r="AH6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AI6" s="17" t="s">
+      <c r="AI6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AJ6" s="17" t="s">
+      <c r="AJ6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AK6" s="17" t="s">
+      <c r="AK6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AL6" s="17" t="s">
+      <c r="AL6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AM6" s="17" t="s">
+      <c r="AM6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AN6" s="16" t="s">
+      <c r="AN6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AO6" s="16" t="s">
+      <c r="AO6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AP6" s="16" t="s">
+      <c r="AP6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AQ6" s="16" t="s">
+      <c r="AQ6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AR6" s="16" t="s">
+      <c r="AR6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AS6" s="16" t="s">
+      <c r="AS6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AT6" s="16" t="s">
+      <c r="AT6" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="AU6" s="16" t="s">
+      <c r="AU6" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="AV6" s="16" t="s">
+      <c r="AV6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="AW6" s="16" t="s">
+      <c r="AW6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="AX6" s="17" t="s">
+      <c r="AX6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AY6" s="17" t="s">
+      <c r="AY6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="AZ6" s="17" t="s">
+      <c r="AZ6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="BA6" s="17" t="s">
+      <c r="BA6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="BB6" s="17" t="s">
+      <c r="BB6" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:54" ht="30" customHeight="1">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="Q7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="R7" s="17" t="s">
+      <c r="R7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="17" t="s">
+      <c r="S7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="T7" s="17" t="s">
+      <c r="T7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="U7" s="17" t="s">
+      <c r="U7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="V7" s="17" t="s">
+      <c r="V7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="W7" s="17" t="s">
+      <c r="W7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="X7" s="17" t="s">
+      <c r="X7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="Y7" s="17" t="s">
+      <c r="Y7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="Z7" s="17" t="s">
+      <c r="Z7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AA7" s="17" t="s">
+      <c r="AA7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AB7" s="17" t="s">
+      <c r="AB7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AC7" s="17" t="s">
+      <c r="AC7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AD7" s="17" t="s">
+      <c r="AD7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AE7" s="17" t="s">
+      <c r="AE7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AF7" s="17" t="s">
+      <c r="AF7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AG7" s="17" t="s">
+      <c r="AG7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AH7" s="17" t="s">
+      <c r="AH7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AI7" s="17" t="s">
+      <c r="AI7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AJ7" s="17" t="s">
+      <c r="AJ7" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AK7" s="17" t="s">
+      <c r="AK7" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AL7" s="17" t="s">
+      <c r="AL7" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AM7" s="17" t="s">
+      <c r="AM7" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="AN7" s="17" t="s">
+      <c r="AN7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AO7" s="17" t="s">
+      <c r="AO7" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="AP7" s="17" t="s">
+      <c r="AP7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AQ7" s="17" t="s">
+      <c r="AQ7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="AR7" s="17" t="s">
+      <c r="AR7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AS7" s="17" t="s">
+      <c r="AS7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="AT7" s="17" t="s">
+      <c r="AT7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AU7" s="17" t="s">
+      <c r="AU7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="AV7" s="17" t="s">
+      <c r="AV7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AW7" s="17" t="s">
+      <c r="AW7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="AX7" s="17" t="s">
+      <c r="AX7" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="AY7" s="17" t="s">
+      <c r="AY7" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="AZ7" s="17" t="s">
+      <c r="AZ7" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="BA7" s="17" t="s">
+      <c r="BA7" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="BB7" s="17" t="s">
+      <c r="BB7" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:54">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="O8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="P8" s="20" t="s">
+      <c r="P8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="Q8" s="20" t="s">
+      <c r="Q8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="R8" s="20" t="s">
+      <c r="R8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="S8" s="20" t="s">
+      <c r="S8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="T8" s="20" t="s">
+      <c r="T8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="U8" s="20" t="s">
+      <c r="U8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="V8" s="20" t="s">
+      <c r="V8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="W8" s="20" t="s">
+      <c r="W8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="X8" s="20" t="s">
+      <c r="X8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="Y8" s="20" t="s">
+      <c r="Y8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="Z8" s="20" t="s">
+      <c r="Z8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AA8" s="20" t="s">
+      <c r="AA8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AB8" s="20" t="s">
+      <c r="AB8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AC8" s="20" t="s">
+      <c r="AC8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AD8" s="20" t="s">
+      <c r="AD8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AE8" s="20" t="s">
+      <c r="AE8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AF8" s="20" t="s">
+      <c r="AF8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AG8" s="20" t="s">
+      <c r="AG8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AH8" s="20" t="s">
+      <c r="AH8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AI8" s="20" t="s">
+      <c r="AI8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AJ8" s="20" t="s">
+      <c r="AJ8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AK8" s="20" t="s">
+      <c r="AK8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AL8" s="20" t="s">
+      <c r="AL8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AM8" s="20" t="s">
+      <c r="AM8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AN8" s="20" t="s">
+      <c r="AN8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AO8" s="20" t="s">
+      <c r="AO8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AP8" s="20" t="s">
+      <c r="AP8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AQ8" s="20" t="s">
+      <c r="AQ8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AR8" s="20" t="s">
+      <c r="AR8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AS8" s="20" t="s">
+      <c r="AS8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AT8" s="20" t="s">
+      <c r="AT8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AU8" s="20" t="s">
+      <c r="AU8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="20" t="s">
+      <c r="AV8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AW8" s="20" t="s">
+      <c r="AW8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AX8" s="20" t="s">
+      <c r="AX8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AY8" s="20" t="s">
+      <c r="AY8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AZ8" s="20" t="s">
+      <c r="AZ8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="BA8" s="20" t="s">
+      <c r="BA8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="BB8" s="20" t="s">
+      <c r="BB8" s="17" t="s">
         <v>67</v>
       </c>
     </row>
@@ -59267,15 +59267,20 @@
       </c>
     </row>
     <row r="106" spans="2:55">
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="BC106" s="12" t="s">
+      <c r="BC106" s="20" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:N5"/>
+    <mergeCell ref="O5:AA5"/>
+    <mergeCell ref="AB5:AI5"/>
+    <mergeCell ref="AJ5:BB5"/>
     <mergeCell ref="AT6:AU6"/>
     <mergeCell ref="AV6:AW6"/>
     <mergeCell ref="B7:C7"/>
@@ -59284,11 +59289,6 @@
     <mergeCell ref="AN6:AO6"/>
     <mergeCell ref="AP6:AQ6"/>
     <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:N5"/>
-    <mergeCell ref="O5:AA5"/>
-    <mergeCell ref="AB5:AI5"/>
-    <mergeCell ref="AJ5:BB5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B106" r:id="rId1"/>
